--- a/1.Prijedlog Projekta/2. Okvirna procjena trajanja projekta.xlsx
+++ b/1.Prijedlog Projekta/2. Okvirna procjena trajanja projekta.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanushaj\Desktop\Stocks\1.Prijedlog Projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F57B4D-4731-48B7-AC33-D73ABD01B6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C48BC-63F3-4E12-8FD0-211EC7B5890E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -389,10 +402,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -727,6 +740,12 @@
         <v>45736</v>
       </c>
     </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f>SUM(B4:B24)</f>
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
